--- a/DatabasePrep/carbon_cap_targets.xlsx
+++ b/DatabasePrep/carbon_cap_targets.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="21721"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="360" windowWidth="33560" windowHeight="21520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="xls_calcs" sheetId="1" r:id="rId1"/>
-    <sheet name="csv_for_export" sheetId="2" r:id="rId2"/>
+    <sheet name="CA_targets" sheetId="1" r:id="rId1"/>
+    <sheet name="No_cap" sheetId="3" r:id="rId2"/>
+    <sheet name="carbon_cap_targets.csv" sheetId="2" r:id="rId3"/>
+    <sheet name="carbon_cap_scenarios.csv" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>year</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,24 +30,51 @@
   <si>
     <t>carbon_emissions_relative_to_base</t>
   </si>
+  <si>
+    <t>carbon_cap_scenario_id</t>
+  </si>
+  <si>
+    <t>scenario_name</t>
+  </si>
+  <si>
+    <t>scenario_description</t>
+  </si>
+  <si>
+    <t>California emission goals</t>
+  </si>
+  <si>
+    <t>A linear decrease from 100% of 1990 levels in 2020 to 20% of 1990 levels in 2050.</t>
+  </si>
+  <si>
+    <t>No cap</t>
+  </si>
+  <si>
+    <t>Cap targets so high as to be effectively unbounded.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -66,17 +95,66 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="25">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -399,794 +477,1073 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:B92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2010</v>
       </c>
-      <c r="B2">
-        <f t="shared" ref="B2:B10" si="0">-($B$12-$B$42)/($A$12-$A$42) + B3</f>
+      <c r="C2">
+        <f t="shared" ref="C2:C10" si="0">-($C$12-$C$42)/($B$12-$B$42) + C3</f>
         <v>1.2666666666666662</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2011</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <f t="shared" si="0"/>
         <v>1.2399999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>2012</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <f t="shared" si="0"/>
         <v>1.2133333333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>2013</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>1.1866666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>2014</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>1.1599999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>2015</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>1.1333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>2016</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>1.1066666666666665</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>2017</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>1.0799999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>2018</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>1.0533333333333332</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>2019</v>
       </c>
-      <c r="B11">
-        <f>-($B$12-$B$42)/($A$12-$A$42) + B12</f>
+      <c r="C11">
+        <f>-($C$12-$C$42)/($B$12-$B$42) + C12</f>
         <v>1.0266666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>2020</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
         <v>2021</v>
       </c>
-      <c r="B13">
-        <f>($B$12-$B$42)/($A$12-$A$42) + B12</f>
+      <c r="C13">
+        <f>($C$12-$C$42)/($B$12-$B$42) + C12</f>
         <v>0.97333333333333338</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
         <v>2022</v>
       </c>
-      <c r="B14">
-        <f t="shared" ref="B14:B41" si="1">($B$12-$B$42)/($A$12-$A$42) + B13</f>
+      <c r="C14">
+        <f t="shared" ref="C14:C41" si="1">($C$12-$C$42)/($B$12-$B$42) + C13</f>
         <v>0.94666666666666677</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
         <v>2023</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <f t="shared" si="1"/>
         <v>0.92000000000000015</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
         <v>2024</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <f t="shared" si="1"/>
         <v>0.89333333333333353</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
         <v>2025</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <f t="shared" si="1"/>
         <v>0.86666666666666692</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
         <v>2026</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <f t="shared" si="1"/>
         <v>0.8400000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
         <v>2027</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <f t="shared" si="1"/>
         <v>0.81333333333333369</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
         <v>2028</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <f t="shared" si="1"/>
         <v>0.78666666666666707</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
         <v>2029</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <f t="shared" si="1"/>
         <v>0.76000000000000045</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
         <v>2030</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <f t="shared" si="1"/>
         <v>0.73333333333333384</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
         <v>2031</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <f t="shared" si="1"/>
         <v>0.70666666666666722</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
         <v>2032</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <f t="shared" si="1"/>
         <v>0.6800000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
         <v>2033</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <f t="shared" si="1"/>
         <v>0.65333333333333399</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
         <v>2034</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <f t="shared" si="1"/>
         <v>0.62666666666666737</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
         <v>2035</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <f t="shared" si="1"/>
         <v>0.60000000000000075</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
         <v>2036</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <f t="shared" si="1"/>
         <v>0.57333333333333414</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
         <v>2037</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <f t="shared" si="1"/>
         <v>0.54666666666666752</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
         <v>2038</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <f t="shared" si="1"/>
         <v>0.52000000000000091</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
         <v>2039</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <f t="shared" si="1"/>
         <v>0.49333333333333423</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
         <v>2040</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <f t="shared" si="1"/>
         <v>0.46666666666666756</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
         <v>2041</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <f t="shared" si="1"/>
         <v>0.44000000000000089</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
         <v>2042</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <f t="shared" si="1"/>
         <v>0.41333333333333422</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
         <v>2043</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <f t="shared" si="1"/>
         <v>0.38666666666666755</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
         <v>2044</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <f t="shared" si="1"/>
         <v>0.36000000000000087</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
         <v>2045</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <f t="shared" si="1"/>
         <v>0.3333333333333342</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
         <v>2046</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <f t="shared" si="1"/>
         <v>0.30666666666666753</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
         <v>2047</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <f t="shared" si="1"/>
         <v>0.28000000000000086</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
         <v>2048</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <f t="shared" si="1"/>
         <v>0.25333333333333419</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
         <v>2049</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <f t="shared" si="1"/>
         <v>0.22666666666666752</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
         <v>2050</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
         <v>2051</v>
       </c>
-      <c r="B43">
-        <f>($B$12-$B$42)/($A$12-$A$42) + B42</f>
+      <c r="C43">
+        <f>($C$12-$C$42)/($B$12-$B$42) + C42</f>
         <v>0.17333333333333334</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
         <v>2052</v>
       </c>
-      <c r="B44">
-        <f t="shared" ref="B44:B50" si="2">($B$12-$B$42)/($A$12-$A$42) + B43</f>
+      <c r="C44">
+        <f t="shared" ref="C44:C49" si="2">($C$12-$C$42)/($B$12-$B$42) + C43</f>
         <v>0.14666666666666667</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
         <v>2053</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
         <v>2054</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <f t="shared" si="2"/>
         <v>9.3333333333333324E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
         <v>2055</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <f t="shared" si="2"/>
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
         <v>2056</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <f t="shared" si="2"/>
         <v>3.999999999999998E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
         <v>2057</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <f t="shared" si="2"/>
         <v>1.3333333333333312E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
         <v>2058</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
         <v>2059</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
         <v>2060</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
         <v>2061</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
         <v>2062</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
         <v>2063</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
         <v>2064</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
         <v>2065</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
         <v>2066</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
         <v>2067</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
         <v>2068</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
         <v>2069</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
         <v>2070</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
         <v>2071</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
         <v>2072</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
         <v>2073</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
         <v>2074</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
         <v>2075</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
         <v>2076</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
         <v>2077</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
         <v>2078</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
         <v>2079</v>
       </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
         <v>2080</v>
       </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
         <v>2081</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
         <v>2082</v>
       </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
         <v>2083</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
         <v>2084</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
         <v>2085</v>
       </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
         <v>2086</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
         <v>2087</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
         <v>2088</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
         <v>2089</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
         <v>2090</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
         <v>2091</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
         <v>2092</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
         <v>2093</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
         <v>2094</v>
       </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
         <v>2095</v>
       </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
         <v>2096</v>
       </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
         <v>2097</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
         <v>2098</v>
       </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
         <v>2099</v>
       </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
         <v>2100</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>0</v>
       </c>
     </row>
@@ -1195,941 +1552,3615 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:B92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:B92"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="str">
-        <f>xls_calcs!A1</f>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2010</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2011</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2012</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2013</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>2014</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2015</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2016</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2017</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>2023</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>2025</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>2026</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>2027</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>2028</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>2029</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>2030</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>2031</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>2032</v>
+      </c>
+      <c r="C24" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>2033</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>2034</v>
+      </c>
+      <c r="C26" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>2035</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>2036</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>2037</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>2038</v>
+      </c>
+      <c r="C30" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>2039</v>
+      </c>
+      <c r="C31" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>2040</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>2041</v>
+      </c>
+      <c r="C33" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>2042</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>2043</v>
+      </c>
+      <c r="C35" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>2044</v>
+      </c>
+      <c r="C36" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>2045</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>2046</v>
+      </c>
+      <c r="C38" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>2047</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>2048</v>
+      </c>
+      <c r="C40" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>2049</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>2050</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>2051</v>
+      </c>
+      <c r="C43" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>2052</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>2053</v>
+      </c>
+      <c r="C45" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>2054</v>
+      </c>
+      <c r="C46" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>2055</v>
+      </c>
+      <c r="C47" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>2056</v>
+      </c>
+      <c r="C48" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>2057</v>
+      </c>
+      <c r="C49" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>2058</v>
+      </c>
+      <c r="C50" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>2059</v>
+      </c>
+      <c r="C51" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>2060</v>
+      </c>
+      <c r="C52" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>2061</v>
+      </c>
+      <c r="C53" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>2062</v>
+      </c>
+      <c r="C54" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>2063</v>
+      </c>
+      <c r="C55" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>2064</v>
+      </c>
+      <c r="C56" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>2065</v>
+      </c>
+      <c r="C57" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>2066</v>
+      </c>
+      <c r="C58" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>2067</v>
+      </c>
+      <c r="C59" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>2068</v>
+      </c>
+      <c r="C60" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>2069</v>
+      </c>
+      <c r="C61" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>2070</v>
+      </c>
+      <c r="C62" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>2071</v>
+      </c>
+      <c r="C63" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>2072</v>
+      </c>
+      <c r="C64" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>2073</v>
+      </c>
+      <c r="C65" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>2074</v>
+      </c>
+      <c r="C66" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>2075</v>
+      </c>
+      <c r="C67" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>2076</v>
+      </c>
+      <c r="C68" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>2077</v>
+      </c>
+      <c r="C69" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>2078</v>
+      </c>
+      <c r="C70" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>2079</v>
+      </c>
+      <c r="C71" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>2080</v>
+      </c>
+      <c r="C72" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>2081</v>
+      </c>
+      <c r="C73" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>2082</v>
+      </c>
+      <c r="C74" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>2083</v>
+      </c>
+      <c r="C75" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>2084</v>
+      </c>
+      <c r="C76" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>2085</v>
+      </c>
+      <c r="C77" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>2086</v>
+      </c>
+      <c r="C78" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>2087</v>
+      </c>
+      <c r="C79" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>2088</v>
+      </c>
+      <c r="C80" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>2089</v>
+      </c>
+      <c r="C81" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>2090</v>
+      </c>
+      <c r="C82" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>2091</v>
+      </c>
+      <c r="C83" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>2092</v>
+      </c>
+      <c r="C84" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>2093</v>
+      </c>
+      <c r="C85" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>2094</v>
+      </c>
+      <c r="C86" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>2095</v>
+      </c>
+      <c r="C87" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>2096</v>
+      </c>
+      <c r="C88" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>2097</v>
+      </c>
+      <c r="C89" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>2098</v>
+      </c>
+      <c r="C90" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>2099</v>
+      </c>
+      <c r="C91" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>2100</v>
+      </c>
+      <c r="C92" s="1">
+        <v>10000000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C183"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="str">
+        <f>CA_targets!B1</f>
         <v>year</v>
       </c>
-      <c r="B1" t="str">
-        <f>xls_calcs!B1</f>
+      <c r="C1" t="str">
+        <f>CA_targets!C1</f>
         <v>carbon_emissions_relative_to_base</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <f>xls_calcs!A2</f>
+        <f>CA_targets!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>CA_targets!B2</f>
         <v>2010</v>
       </c>
-      <c r="B2">
-        <f>xls_calcs!B2</f>
+      <c r="C2">
+        <f>CA_targets!C2</f>
         <v>1.2666666666666662</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3">
-        <f>xls_calcs!A3</f>
+        <f>CA_targets!A3</f>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>CA_targets!B3</f>
         <v>2011</v>
       </c>
-      <c r="B3">
-        <f>xls_calcs!B3</f>
+      <c r="C3">
+        <f>CA_targets!C3</f>
         <v>1.2399999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4">
-        <f>xls_calcs!A4</f>
+        <f>CA_targets!A4</f>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>CA_targets!B4</f>
         <v>2012</v>
       </c>
-      <c r="B4">
-        <f>xls_calcs!B4</f>
+      <c r="C4">
+        <f>CA_targets!C4</f>
         <v>1.2133333333333329</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5">
-        <f>xls_calcs!A5</f>
+        <f>CA_targets!A5</f>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <f>CA_targets!B5</f>
         <v>2013</v>
       </c>
-      <c r="B5">
-        <f>xls_calcs!B5</f>
+      <c r="C5">
+        <f>CA_targets!C5</f>
         <v>1.1866666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6">
-        <f>xls_calcs!A6</f>
+        <f>CA_targets!A6</f>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>CA_targets!B6</f>
         <v>2014</v>
       </c>
-      <c r="B6">
-        <f>xls_calcs!B6</f>
+      <c r="C6">
+        <f>CA_targets!C6</f>
         <v>1.1599999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7">
-        <f>xls_calcs!A7</f>
+        <f>CA_targets!A7</f>
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <f>CA_targets!B7</f>
         <v>2015</v>
       </c>
-      <c r="B7">
-        <f>xls_calcs!B7</f>
+      <c r="C7">
+        <f>CA_targets!C7</f>
         <v>1.1333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8">
-        <f>xls_calcs!A8</f>
+        <f>CA_targets!A8</f>
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f>CA_targets!B8</f>
         <v>2016</v>
       </c>
-      <c r="B8">
-        <f>xls_calcs!B8</f>
+      <c r="C8">
+        <f>CA_targets!C8</f>
         <v>1.1066666666666665</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9">
-        <f>xls_calcs!A9</f>
+        <f>CA_targets!A9</f>
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>CA_targets!B9</f>
         <v>2017</v>
       </c>
-      <c r="B9">
-        <f>xls_calcs!B9</f>
+      <c r="C9">
+        <f>CA_targets!C9</f>
         <v>1.0799999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10">
-        <f>xls_calcs!A10</f>
+        <f>CA_targets!A10</f>
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <f>CA_targets!B10</f>
         <v>2018</v>
       </c>
-      <c r="B10">
-        <f>xls_calcs!B10</f>
+      <c r="C10">
+        <f>CA_targets!C10</f>
         <v>1.0533333333333332</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11">
-        <f>xls_calcs!A11</f>
+        <f>CA_targets!A11</f>
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f>CA_targets!B11</f>
         <v>2019</v>
       </c>
-      <c r="B11">
-        <f>xls_calcs!B11</f>
+      <c r="C11">
+        <f>CA_targets!C11</f>
         <v>1.0266666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12">
-        <f>xls_calcs!A12</f>
+        <f>CA_targets!A12</f>
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <f>CA_targets!B12</f>
         <v>2020</v>
       </c>
-      <c r="B12">
-        <f>xls_calcs!B12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <f>CA_targets!C12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
-        <f>xls_calcs!A13</f>
+        <f>CA_targets!A13</f>
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f>CA_targets!B13</f>
         <v>2021</v>
       </c>
-      <c r="B13">
-        <f>xls_calcs!B13</f>
+      <c r="C13">
+        <f>CA_targets!C13</f>
         <v>0.97333333333333338</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14">
-        <f>xls_calcs!A14</f>
+        <f>CA_targets!A14</f>
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <f>CA_targets!B14</f>
         <v>2022</v>
       </c>
-      <c r="B14">
-        <f>xls_calcs!B14</f>
+      <c r="C14">
+        <f>CA_targets!C14</f>
         <v>0.94666666666666677</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15">
-        <f>xls_calcs!A15</f>
+        <f>CA_targets!A15</f>
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f>CA_targets!B15</f>
         <v>2023</v>
       </c>
-      <c r="B15">
-        <f>xls_calcs!B15</f>
+      <c r="C15">
+        <f>CA_targets!C15</f>
         <v>0.92000000000000015</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16">
-        <f>xls_calcs!A16</f>
+        <f>CA_targets!A16</f>
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <f>CA_targets!B16</f>
         <v>2024</v>
       </c>
-      <c r="B16">
-        <f>xls_calcs!B16</f>
+      <c r="C16">
+        <f>CA_targets!C16</f>
         <v>0.89333333333333353</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17">
-        <f>xls_calcs!A17</f>
+        <f>CA_targets!A17</f>
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <f>CA_targets!B17</f>
         <v>2025</v>
       </c>
-      <c r="B17">
-        <f>xls_calcs!B17</f>
+      <c r="C17">
+        <f>CA_targets!C17</f>
         <v>0.86666666666666692</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18">
-        <f>xls_calcs!A18</f>
+        <f>CA_targets!A18</f>
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <f>CA_targets!B18</f>
         <v>2026</v>
       </c>
-      <c r="B18">
-        <f>xls_calcs!B18</f>
+      <c r="C18">
+        <f>CA_targets!C18</f>
         <v>0.8400000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19">
-        <f>xls_calcs!A19</f>
+        <f>CA_targets!A19</f>
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <f>CA_targets!B19</f>
         <v>2027</v>
       </c>
-      <c r="B19">
-        <f>xls_calcs!B19</f>
+      <c r="C19">
+        <f>CA_targets!C19</f>
         <v>0.81333333333333369</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20">
-        <f>xls_calcs!A20</f>
+        <f>CA_targets!A20</f>
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <f>CA_targets!B20</f>
         <v>2028</v>
       </c>
-      <c r="B20">
-        <f>xls_calcs!B20</f>
+      <c r="C20">
+        <f>CA_targets!C20</f>
         <v>0.78666666666666707</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21">
-        <f>xls_calcs!A21</f>
+        <f>CA_targets!A21</f>
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <f>CA_targets!B21</f>
         <v>2029</v>
       </c>
-      <c r="B21">
-        <f>xls_calcs!B21</f>
+      <c r="C21">
+        <f>CA_targets!C21</f>
         <v>0.76000000000000045</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22">
-        <f>xls_calcs!A22</f>
+        <f>CA_targets!A22</f>
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <f>CA_targets!B22</f>
         <v>2030</v>
       </c>
-      <c r="B22">
-        <f>xls_calcs!B22</f>
+      <c r="C22">
+        <f>CA_targets!C22</f>
         <v>0.73333333333333384</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23">
-        <f>xls_calcs!A23</f>
+        <f>CA_targets!A23</f>
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f>CA_targets!B23</f>
         <v>2031</v>
       </c>
-      <c r="B23">
-        <f>xls_calcs!B23</f>
+      <c r="C23">
+        <f>CA_targets!C23</f>
         <v>0.70666666666666722</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24">
-        <f>xls_calcs!A24</f>
+        <f>CA_targets!A24</f>
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <f>CA_targets!B24</f>
         <v>2032</v>
       </c>
-      <c r="B24">
-        <f>xls_calcs!B24</f>
+      <c r="C24">
+        <f>CA_targets!C24</f>
         <v>0.6800000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25">
-        <f>xls_calcs!A25</f>
+        <f>CA_targets!A25</f>
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <f>CA_targets!B25</f>
         <v>2033</v>
       </c>
-      <c r="B25">
-        <f>xls_calcs!B25</f>
+      <c r="C25">
+        <f>CA_targets!C25</f>
         <v>0.65333333333333399</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26">
-        <f>xls_calcs!A26</f>
+        <f>CA_targets!A26</f>
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <f>CA_targets!B26</f>
         <v>2034</v>
       </c>
-      <c r="B26">
-        <f>xls_calcs!B26</f>
+      <c r="C26">
+        <f>CA_targets!C26</f>
         <v>0.62666666666666737</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27">
-        <f>xls_calcs!A27</f>
+        <f>CA_targets!A27</f>
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <f>CA_targets!B27</f>
         <v>2035</v>
       </c>
-      <c r="B27">
-        <f>xls_calcs!B27</f>
+      <c r="C27">
+        <f>CA_targets!C27</f>
         <v>0.60000000000000075</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28">
-        <f>xls_calcs!A28</f>
+        <f>CA_targets!A28</f>
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <f>CA_targets!B28</f>
         <v>2036</v>
       </c>
-      <c r="B28">
-        <f>xls_calcs!B28</f>
+      <c r="C28">
+        <f>CA_targets!C28</f>
         <v>0.57333333333333414</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29">
-        <f>xls_calcs!A29</f>
+        <f>CA_targets!A29</f>
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <f>CA_targets!B29</f>
         <v>2037</v>
       </c>
-      <c r="B29">
-        <f>xls_calcs!B29</f>
+      <c r="C29">
+        <f>CA_targets!C29</f>
         <v>0.54666666666666752</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30">
-        <f>xls_calcs!A30</f>
+        <f>CA_targets!A30</f>
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <f>CA_targets!B30</f>
         <v>2038</v>
       </c>
-      <c r="B30">
-        <f>xls_calcs!B30</f>
+      <c r="C30">
+        <f>CA_targets!C30</f>
         <v>0.52000000000000091</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31">
-        <f>xls_calcs!A31</f>
+        <f>CA_targets!A31</f>
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <f>CA_targets!B31</f>
         <v>2039</v>
       </c>
-      <c r="B31">
-        <f>xls_calcs!B31</f>
+      <c r="C31">
+        <f>CA_targets!C31</f>
         <v>0.49333333333333423</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32">
-        <f>xls_calcs!A32</f>
+        <f>CA_targets!A32</f>
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <f>CA_targets!B32</f>
         <v>2040</v>
       </c>
-      <c r="B32">
-        <f>xls_calcs!B32</f>
+      <c r="C32">
+        <f>CA_targets!C32</f>
         <v>0.46666666666666756</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c r="A33">
-        <f>xls_calcs!A33</f>
+        <f>CA_targets!A33</f>
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <f>CA_targets!B33</f>
         <v>2041</v>
       </c>
-      <c r="B33">
-        <f>xls_calcs!B33</f>
+      <c r="C33">
+        <f>CA_targets!C33</f>
         <v>0.44000000000000089</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c r="A34">
-        <f>xls_calcs!A34</f>
+        <f>CA_targets!A34</f>
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <f>CA_targets!B34</f>
         <v>2042</v>
       </c>
-      <c r="B34">
-        <f>xls_calcs!B34</f>
+      <c r="C34">
+        <f>CA_targets!C34</f>
         <v>0.41333333333333422</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:3">
       <c r="A35">
-        <f>xls_calcs!A35</f>
+        <f>CA_targets!A35</f>
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <f>CA_targets!B35</f>
         <v>2043</v>
       </c>
-      <c r="B35">
-        <f>xls_calcs!B35</f>
+      <c r="C35">
+        <f>CA_targets!C35</f>
         <v>0.38666666666666755</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:3">
       <c r="A36">
-        <f>xls_calcs!A36</f>
+        <f>CA_targets!A36</f>
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <f>CA_targets!B36</f>
         <v>2044</v>
       </c>
-      <c r="B36">
-        <f>xls_calcs!B36</f>
+      <c r="C36">
+        <f>CA_targets!C36</f>
         <v>0.36000000000000087</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:3">
       <c r="A37">
-        <f>xls_calcs!A37</f>
+        <f>CA_targets!A37</f>
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f>CA_targets!B37</f>
         <v>2045</v>
       </c>
-      <c r="B37">
-        <f>xls_calcs!B37</f>
+      <c r="C37">
+        <f>CA_targets!C37</f>
         <v>0.3333333333333342</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:3">
       <c r="A38">
-        <f>xls_calcs!A38</f>
+        <f>CA_targets!A38</f>
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <f>CA_targets!B38</f>
         <v>2046</v>
       </c>
-      <c r="B38">
-        <f>xls_calcs!B38</f>
+      <c r="C38">
+        <f>CA_targets!C38</f>
         <v>0.30666666666666753</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:3">
       <c r="A39">
-        <f>xls_calcs!A39</f>
+        <f>CA_targets!A39</f>
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <f>CA_targets!B39</f>
         <v>2047</v>
       </c>
-      <c r="B39">
-        <f>xls_calcs!B39</f>
+      <c r="C39">
+        <f>CA_targets!C39</f>
         <v>0.28000000000000086</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:3">
       <c r="A40">
-        <f>xls_calcs!A40</f>
+        <f>CA_targets!A40</f>
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <f>CA_targets!B40</f>
         <v>2048</v>
       </c>
-      <c r="B40">
-        <f>xls_calcs!B40</f>
+      <c r="C40">
+        <f>CA_targets!C40</f>
         <v>0.25333333333333419</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:3">
       <c r="A41">
-        <f>xls_calcs!A41</f>
+        <f>CA_targets!A41</f>
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <f>CA_targets!B41</f>
         <v>2049</v>
       </c>
-      <c r="B41">
-        <f>xls_calcs!B41</f>
+      <c r="C41">
+        <f>CA_targets!C41</f>
         <v>0.22666666666666752</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:3">
       <c r="A42">
-        <f>xls_calcs!A42</f>
+        <f>CA_targets!A42</f>
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <f>CA_targets!B42</f>
         <v>2050</v>
       </c>
-      <c r="B42">
-        <f>xls_calcs!B42</f>
+      <c r="C42">
+        <f>CA_targets!C42</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:3">
       <c r="A43">
-        <f>xls_calcs!A43</f>
+        <f>CA_targets!A43</f>
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <f>CA_targets!B43</f>
         <v>2051</v>
       </c>
-      <c r="B43">
-        <f>xls_calcs!B43</f>
+      <c r="C43">
+        <f>CA_targets!C43</f>
         <v>0.17333333333333334</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:3">
       <c r="A44">
-        <f>xls_calcs!A44</f>
+        <f>CA_targets!A44</f>
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <f>CA_targets!B44</f>
         <v>2052</v>
       </c>
-      <c r="B44">
-        <f>xls_calcs!B44</f>
+      <c r="C44">
+        <f>CA_targets!C44</f>
         <v>0.14666666666666667</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:3">
       <c r="A45">
-        <f>xls_calcs!A45</f>
+        <f>CA_targets!A45</f>
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <f>CA_targets!B45</f>
         <v>2053</v>
       </c>
-      <c r="B45">
-        <f>xls_calcs!B45</f>
+      <c r="C45">
+        <f>CA_targets!C45</f>
         <v>0.12</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:3">
       <c r="A46">
-        <f>xls_calcs!A46</f>
+        <f>CA_targets!A46</f>
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <f>CA_targets!B46</f>
         <v>2054</v>
       </c>
-      <c r="B46">
-        <f>xls_calcs!B46</f>
+      <c r="C46">
+        <f>CA_targets!C46</f>
         <v>9.3333333333333324E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:3">
       <c r="A47">
-        <f>xls_calcs!A47</f>
+        <f>CA_targets!A47</f>
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <f>CA_targets!B47</f>
         <v>2055</v>
       </c>
-      <c r="B47">
-        <f>xls_calcs!B47</f>
+      <c r="C47">
+        <f>CA_targets!C47</f>
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48">
-        <f>xls_calcs!A48</f>
+        <f>CA_targets!A48</f>
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <f>CA_targets!B48</f>
         <v>2056</v>
       </c>
-      <c r="B48">
-        <f>xls_calcs!B48</f>
+      <c r="C48">
+        <f>CA_targets!C48</f>
         <v>3.999999999999998E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49">
-        <f>xls_calcs!A49</f>
+        <f>CA_targets!A49</f>
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <f>CA_targets!B49</f>
         <v>2057</v>
       </c>
-      <c r="B49">
-        <f>xls_calcs!B49</f>
+      <c r="C49">
+        <f>CA_targets!C49</f>
         <v>1.3333333333333312E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50">
-        <f>xls_calcs!A50</f>
+        <f>CA_targets!A50</f>
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <f>CA_targets!B50</f>
         <v>2058</v>
       </c>
-      <c r="B50">
-        <f>xls_calcs!B50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <f>CA_targets!C50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51">
-        <f>xls_calcs!A51</f>
+        <f>CA_targets!A51</f>
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <f>CA_targets!B51</f>
         <v>2059</v>
       </c>
-      <c r="B51">
-        <f>xls_calcs!B51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <f>CA_targets!C51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52">
-        <f>xls_calcs!A52</f>
+        <f>CA_targets!A52</f>
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <f>CA_targets!B52</f>
         <v>2060</v>
       </c>
-      <c r="B52">
-        <f>xls_calcs!B52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <f>CA_targets!C52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53">
-        <f>xls_calcs!A53</f>
+        <f>CA_targets!A53</f>
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <f>CA_targets!B53</f>
         <v>2061</v>
       </c>
-      <c r="B53">
-        <f>xls_calcs!B53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <f>CA_targets!C53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54">
-        <f>xls_calcs!A54</f>
+        <f>CA_targets!A54</f>
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <f>CA_targets!B54</f>
         <v>2062</v>
       </c>
-      <c r="B54">
-        <f>xls_calcs!B54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <f>CA_targets!C54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55">
-        <f>xls_calcs!A55</f>
+        <f>CA_targets!A55</f>
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <f>CA_targets!B55</f>
         <v>2063</v>
       </c>
-      <c r="B55">
-        <f>xls_calcs!B55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <f>CA_targets!C55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56">
-        <f>xls_calcs!A56</f>
+        <f>CA_targets!A56</f>
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <f>CA_targets!B56</f>
         <v>2064</v>
       </c>
-      <c r="B56">
-        <f>xls_calcs!B56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <f>CA_targets!C56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57">
-        <f>xls_calcs!A57</f>
+        <f>CA_targets!A57</f>
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <f>CA_targets!B57</f>
         <v>2065</v>
       </c>
-      <c r="B57">
-        <f>xls_calcs!B57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <f>CA_targets!C57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58">
-        <f>xls_calcs!A58</f>
+        <f>CA_targets!A58</f>
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <f>CA_targets!B58</f>
         <v>2066</v>
       </c>
-      <c r="B58">
-        <f>xls_calcs!B58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <f>CA_targets!C58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59">
-        <f>xls_calcs!A59</f>
+        <f>CA_targets!A59</f>
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <f>CA_targets!B59</f>
         <v>2067</v>
       </c>
-      <c r="B59">
-        <f>xls_calcs!B59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <f>CA_targets!C59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60">
-        <f>xls_calcs!A60</f>
+        <f>CA_targets!A60</f>
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <f>CA_targets!B60</f>
         <v>2068</v>
       </c>
-      <c r="B60">
-        <f>xls_calcs!B60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <f>CA_targets!C60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61">
-        <f>xls_calcs!A61</f>
+        <f>CA_targets!A61</f>
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <f>CA_targets!B61</f>
         <v>2069</v>
       </c>
-      <c r="B61">
-        <f>xls_calcs!B61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <f>CA_targets!C61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62">
-        <f>xls_calcs!A62</f>
+        <f>CA_targets!A62</f>
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <f>CA_targets!B62</f>
         <v>2070</v>
       </c>
-      <c r="B62">
-        <f>xls_calcs!B62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <f>CA_targets!C62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63">
-        <f>xls_calcs!A63</f>
+        <f>CA_targets!A63</f>
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <f>CA_targets!B63</f>
         <v>2071</v>
       </c>
-      <c r="B63">
-        <f>xls_calcs!B63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <f>CA_targets!C63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64">
-        <f>xls_calcs!A64</f>
+        <f>CA_targets!A64</f>
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <f>CA_targets!B64</f>
         <v>2072</v>
       </c>
-      <c r="B64">
-        <f>xls_calcs!B64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <f>CA_targets!C64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65">
-        <f>xls_calcs!A65</f>
+        <f>CA_targets!A65</f>
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <f>CA_targets!B65</f>
         <v>2073</v>
       </c>
-      <c r="B65">
-        <f>xls_calcs!B65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <f>CA_targets!C65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66">
-        <f>xls_calcs!A66</f>
+        <f>CA_targets!A66</f>
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <f>CA_targets!B66</f>
         <v>2074</v>
       </c>
-      <c r="B66">
-        <f>xls_calcs!B66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <f>CA_targets!C66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67">
-        <f>xls_calcs!A67</f>
+        <f>CA_targets!A67</f>
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <f>CA_targets!B67</f>
         <v>2075</v>
       </c>
-      <c r="B67">
-        <f>xls_calcs!B67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <f>CA_targets!C67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68">
-        <f>xls_calcs!A68</f>
+        <f>CA_targets!A68</f>
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <f>CA_targets!B68</f>
         <v>2076</v>
       </c>
-      <c r="B68">
-        <f>xls_calcs!B68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <f>CA_targets!C68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69">
-        <f>xls_calcs!A69</f>
+        <f>CA_targets!A69</f>
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <f>CA_targets!B69</f>
         <v>2077</v>
       </c>
-      <c r="B69">
-        <f>xls_calcs!B69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <f>CA_targets!C69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70">
-        <f>xls_calcs!A70</f>
+        <f>CA_targets!A70</f>
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <f>CA_targets!B70</f>
         <v>2078</v>
       </c>
-      <c r="B70">
-        <f>xls_calcs!B70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <f>CA_targets!C70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71">
-        <f>xls_calcs!A71</f>
+        <f>CA_targets!A71</f>
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <f>CA_targets!B71</f>
         <v>2079</v>
       </c>
-      <c r="B71">
-        <f>xls_calcs!B71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <f>CA_targets!C71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72">
-        <f>xls_calcs!A72</f>
+        <f>CA_targets!A72</f>
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <f>CA_targets!B72</f>
         <v>2080</v>
       </c>
-      <c r="B72">
-        <f>xls_calcs!B72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <f>CA_targets!C72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73">
-        <f>xls_calcs!A73</f>
+        <f>CA_targets!A73</f>
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <f>CA_targets!B73</f>
         <v>2081</v>
       </c>
-      <c r="B73">
-        <f>xls_calcs!B73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <f>CA_targets!C73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74">
-        <f>xls_calcs!A74</f>
+        <f>CA_targets!A74</f>
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <f>CA_targets!B74</f>
         <v>2082</v>
       </c>
-      <c r="B74">
-        <f>xls_calcs!B74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <f>CA_targets!C74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75">
-        <f>xls_calcs!A75</f>
+        <f>CA_targets!A75</f>
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <f>CA_targets!B75</f>
         <v>2083</v>
       </c>
-      <c r="B75">
-        <f>xls_calcs!B75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <f>CA_targets!C75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76">
-        <f>xls_calcs!A76</f>
+        <f>CA_targets!A76</f>
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <f>CA_targets!B76</f>
         <v>2084</v>
       </c>
-      <c r="B76">
-        <f>xls_calcs!B76</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <f>CA_targets!C76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77">
-        <f>xls_calcs!A77</f>
+        <f>CA_targets!A77</f>
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <f>CA_targets!B77</f>
         <v>2085</v>
       </c>
-      <c r="B77">
-        <f>xls_calcs!B77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <f>CA_targets!C77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78">
-        <f>xls_calcs!A78</f>
+        <f>CA_targets!A78</f>
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <f>CA_targets!B78</f>
         <v>2086</v>
       </c>
-      <c r="B78">
-        <f>xls_calcs!B78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <f>CA_targets!C78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79">
-        <f>xls_calcs!A79</f>
+        <f>CA_targets!A79</f>
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <f>CA_targets!B79</f>
         <v>2087</v>
       </c>
-      <c r="B79">
-        <f>xls_calcs!B79</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <f>CA_targets!C79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80">
-        <f>xls_calcs!A80</f>
+        <f>CA_targets!A80</f>
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <f>CA_targets!B80</f>
         <v>2088</v>
       </c>
-      <c r="B80">
-        <f>xls_calcs!B80</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80">
+        <f>CA_targets!C80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81">
-        <f>xls_calcs!A81</f>
+        <f>CA_targets!A81</f>
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <f>CA_targets!B81</f>
         <v>2089</v>
       </c>
-      <c r="B81">
-        <f>xls_calcs!B81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81">
+        <f>CA_targets!C81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82">
-        <f>xls_calcs!A82</f>
+        <f>CA_targets!A82</f>
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <f>CA_targets!B82</f>
         <v>2090</v>
       </c>
-      <c r="B82">
-        <f>xls_calcs!B82</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82">
+        <f>CA_targets!C82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83">
-        <f>xls_calcs!A83</f>
+        <f>CA_targets!A83</f>
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <f>CA_targets!B83</f>
         <v>2091</v>
       </c>
-      <c r="B83">
-        <f>xls_calcs!B83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83">
+        <f>CA_targets!C83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84">
-        <f>xls_calcs!A84</f>
+        <f>CA_targets!A84</f>
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <f>CA_targets!B84</f>
         <v>2092</v>
       </c>
-      <c r="B84">
-        <f>xls_calcs!B84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84">
+        <f>CA_targets!C84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85">
-        <f>xls_calcs!A85</f>
+        <f>CA_targets!A85</f>
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <f>CA_targets!B85</f>
         <v>2093</v>
       </c>
-      <c r="B85">
-        <f>xls_calcs!B85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85">
+        <f>CA_targets!C85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86">
-        <f>xls_calcs!A86</f>
+        <f>CA_targets!A86</f>
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <f>CA_targets!B86</f>
         <v>2094</v>
       </c>
-      <c r="B86">
-        <f>xls_calcs!B86</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86">
+        <f>CA_targets!C86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87">
-        <f>xls_calcs!A87</f>
+        <f>CA_targets!A87</f>
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <f>CA_targets!B87</f>
         <v>2095</v>
       </c>
-      <c r="B87">
-        <f>xls_calcs!B87</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87">
+        <f>CA_targets!C87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88">
-        <f>xls_calcs!A88</f>
+        <f>CA_targets!A88</f>
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <f>CA_targets!B88</f>
         <v>2096</v>
       </c>
-      <c r="B88">
-        <f>xls_calcs!B88</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88">
+        <f>CA_targets!C88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89">
-        <f>xls_calcs!A89</f>
+        <f>CA_targets!A89</f>
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <f>CA_targets!B89</f>
         <v>2097</v>
       </c>
-      <c r="B89">
-        <f>xls_calcs!B89</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89">
+        <f>CA_targets!C89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90">
-        <f>xls_calcs!A90</f>
+        <f>CA_targets!A90</f>
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <f>CA_targets!B90</f>
         <v>2098</v>
       </c>
-      <c r="B90">
-        <f>xls_calcs!B90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90">
+        <f>CA_targets!C90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91">
-        <f>xls_calcs!A91</f>
+        <f>CA_targets!A91</f>
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <f>CA_targets!B91</f>
         <v>2099</v>
       </c>
-      <c r="B91">
-        <f>xls_calcs!B91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91">
+        <f>CA_targets!C91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92">
-        <f>xls_calcs!A92</f>
+        <f>CA_targets!A92</f>
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <f>CA_targets!B92</f>
         <v>2100</v>
       </c>
-      <c r="B92">
-        <f>xls_calcs!B92</f>
-        <v>0</v>
+      <c r="C92">
+        <f>CA_targets!C92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <f>No_cap!A2</f>
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <f>No_cap!B2</f>
+        <v>2010</v>
+      </c>
+      <c r="C93">
+        <f>No_cap!C2</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <f>No_cap!A3</f>
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <f>No_cap!B3</f>
+        <v>2011</v>
+      </c>
+      <c r="C94">
+        <f>No_cap!C3</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <f>No_cap!A4</f>
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <f>No_cap!B4</f>
+        <v>2012</v>
+      </c>
+      <c r="C95">
+        <f>No_cap!C4</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <f>No_cap!A5</f>
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <f>No_cap!B5</f>
+        <v>2013</v>
+      </c>
+      <c r="C96">
+        <f>No_cap!C5</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <f>No_cap!A6</f>
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <f>No_cap!B6</f>
+        <v>2014</v>
+      </c>
+      <c r="C97">
+        <f>No_cap!C6</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <f>No_cap!A7</f>
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <f>No_cap!B7</f>
+        <v>2015</v>
+      </c>
+      <c r="C98">
+        <f>No_cap!C7</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <f>No_cap!A8</f>
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <f>No_cap!B8</f>
+        <v>2016</v>
+      </c>
+      <c r="C99">
+        <f>No_cap!C8</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <f>No_cap!A9</f>
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <f>No_cap!B9</f>
+        <v>2017</v>
+      </c>
+      <c r="C100">
+        <f>No_cap!C9</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <f>No_cap!A10</f>
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <f>No_cap!B10</f>
+        <v>2018</v>
+      </c>
+      <c r="C101">
+        <f>No_cap!C10</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <f>No_cap!A11</f>
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <f>No_cap!B11</f>
+        <v>2019</v>
+      </c>
+      <c r="C102">
+        <f>No_cap!C11</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <f>No_cap!A12</f>
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <f>No_cap!B12</f>
+        <v>2020</v>
+      </c>
+      <c r="C103">
+        <f>No_cap!C12</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <f>No_cap!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <f>No_cap!B13</f>
+        <v>2021</v>
+      </c>
+      <c r="C104">
+        <f>No_cap!C13</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <f>No_cap!A14</f>
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <f>No_cap!B14</f>
+        <v>2022</v>
+      </c>
+      <c r="C105">
+        <f>No_cap!C14</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <f>No_cap!A15</f>
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <f>No_cap!B15</f>
+        <v>2023</v>
+      </c>
+      <c r="C106">
+        <f>No_cap!C15</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <f>No_cap!A16</f>
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <f>No_cap!B16</f>
+        <v>2024</v>
+      </c>
+      <c r="C107">
+        <f>No_cap!C16</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <f>No_cap!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <f>No_cap!B17</f>
+        <v>2025</v>
+      </c>
+      <c r="C108">
+        <f>No_cap!C17</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <f>No_cap!A18</f>
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <f>No_cap!B18</f>
+        <v>2026</v>
+      </c>
+      <c r="C109">
+        <f>No_cap!C18</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <f>No_cap!A19</f>
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <f>No_cap!B19</f>
+        <v>2027</v>
+      </c>
+      <c r="C110">
+        <f>No_cap!C19</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <f>No_cap!A20</f>
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <f>No_cap!B20</f>
+        <v>2028</v>
+      </c>
+      <c r="C111">
+        <f>No_cap!C20</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <f>No_cap!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <f>No_cap!B21</f>
+        <v>2029</v>
+      </c>
+      <c r="C112">
+        <f>No_cap!C21</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <f>No_cap!A22</f>
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <f>No_cap!B22</f>
+        <v>2030</v>
+      </c>
+      <c r="C113">
+        <f>No_cap!C22</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <f>No_cap!A23</f>
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <f>No_cap!B23</f>
+        <v>2031</v>
+      </c>
+      <c r="C114">
+        <f>No_cap!C23</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <f>No_cap!A24</f>
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <f>No_cap!B24</f>
+        <v>2032</v>
+      </c>
+      <c r="C115">
+        <f>No_cap!C24</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <f>No_cap!A25</f>
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <f>No_cap!B25</f>
+        <v>2033</v>
+      </c>
+      <c r="C116">
+        <f>No_cap!C25</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <f>No_cap!A26</f>
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <f>No_cap!B26</f>
+        <v>2034</v>
+      </c>
+      <c r="C117">
+        <f>No_cap!C26</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <f>No_cap!A27</f>
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <f>No_cap!B27</f>
+        <v>2035</v>
+      </c>
+      <c r="C118">
+        <f>No_cap!C27</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <f>No_cap!A28</f>
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <f>No_cap!B28</f>
+        <v>2036</v>
+      </c>
+      <c r="C119">
+        <f>No_cap!C28</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <f>No_cap!A29</f>
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <f>No_cap!B29</f>
+        <v>2037</v>
+      </c>
+      <c r="C120">
+        <f>No_cap!C29</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <f>No_cap!A30</f>
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <f>No_cap!B30</f>
+        <v>2038</v>
+      </c>
+      <c r="C121">
+        <f>No_cap!C30</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <f>No_cap!A31</f>
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <f>No_cap!B31</f>
+        <v>2039</v>
+      </c>
+      <c r="C122">
+        <f>No_cap!C31</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <f>No_cap!A32</f>
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <f>No_cap!B32</f>
+        <v>2040</v>
+      </c>
+      <c r="C123">
+        <f>No_cap!C32</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <f>No_cap!A33</f>
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <f>No_cap!B33</f>
+        <v>2041</v>
+      </c>
+      <c r="C124">
+        <f>No_cap!C33</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <f>No_cap!A34</f>
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <f>No_cap!B34</f>
+        <v>2042</v>
+      </c>
+      <c r="C125">
+        <f>No_cap!C34</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <f>No_cap!A35</f>
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <f>No_cap!B35</f>
+        <v>2043</v>
+      </c>
+      <c r="C126">
+        <f>No_cap!C35</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <f>No_cap!A36</f>
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <f>No_cap!B36</f>
+        <v>2044</v>
+      </c>
+      <c r="C127">
+        <f>No_cap!C36</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <f>No_cap!A37</f>
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <f>No_cap!B37</f>
+        <v>2045</v>
+      </c>
+      <c r="C128">
+        <f>No_cap!C37</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <f>No_cap!A38</f>
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <f>No_cap!B38</f>
+        <v>2046</v>
+      </c>
+      <c r="C129">
+        <f>No_cap!C38</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <f>No_cap!A39</f>
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <f>No_cap!B39</f>
+        <v>2047</v>
+      </c>
+      <c r="C130">
+        <f>No_cap!C39</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <f>No_cap!A40</f>
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <f>No_cap!B40</f>
+        <v>2048</v>
+      </c>
+      <c r="C131">
+        <f>No_cap!C40</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <f>No_cap!A41</f>
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <f>No_cap!B41</f>
+        <v>2049</v>
+      </c>
+      <c r="C132">
+        <f>No_cap!C41</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <f>No_cap!A42</f>
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <f>No_cap!B42</f>
+        <v>2050</v>
+      </c>
+      <c r="C133">
+        <f>No_cap!C42</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <f>No_cap!A43</f>
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <f>No_cap!B43</f>
+        <v>2051</v>
+      </c>
+      <c r="C134">
+        <f>No_cap!C43</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <f>No_cap!A44</f>
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <f>No_cap!B44</f>
+        <v>2052</v>
+      </c>
+      <c r="C135">
+        <f>No_cap!C44</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <f>No_cap!A45</f>
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <f>No_cap!B45</f>
+        <v>2053</v>
+      </c>
+      <c r="C136">
+        <f>No_cap!C45</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <f>No_cap!A46</f>
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <f>No_cap!B46</f>
+        <v>2054</v>
+      </c>
+      <c r="C137">
+        <f>No_cap!C46</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <f>No_cap!A47</f>
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <f>No_cap!B47</f>
+        <v>2055</v>
+      </c>
+      <c r="C138">
+        <f>No_cap!C47</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <f>No_cap!A48</f>
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <f>No_cap!B48</f>
+        <v>2056</v>
+      </c>
+      <c r="C139">
+        <f>No_cap!C48</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <f>No_cap!A49</f>
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <f>No_cap!B49</f>
+        <v>2057</v>
+      </c>
+      <c r="C140">
+        <f>No_cap!C49</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <f>No_cap!A50</f>
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <f>No_cap!B50</f>
+        <v>2058</v>
+      </c>
+      <c r="C141">
+        <f>No_cap!C50</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <f>No_cap!A51</f>
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <f>No_cap!B51</f>
+        <v>2059</v>
+      </c>
+      <c r="C142">
+        <f>No_cap!C51</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <f>No_cap!A52</f>
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <f>No_cap!B52</f>
+        <v>2060</v>
+      </c>
+      <c r="C143">
+        <f>No_cap!C52</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <f>No_cap!A53</f>
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <f>No_cap!B53</f>
+        <v>2061</v>
+      </c>
+      <c r="C144">
+        <f>No_cap!C53</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <f>No_cap!A54</f>
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <f>No_cap!B54</f>
+        <v>2062</v>
+      </c>
+      <c r="C145">
+        <f>No_cap!C54</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <f>No_cap!A55</f>
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <f>No_cap!B55</f>
+        <v>2063</v>
+      </c>
+      <c r="C146">
+        <f>No_cap!C55</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <f>No_cap!A56</f>
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <f>No_cap!B56</f>
+        <v>2064</v>
+      </c>
+      <c r="C147">
+        <f>No_cap!C56</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <f>No_cap!A57</f>
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <f>No_cap!B57</f>
+        <v>2065</v>
+      </c>
+      <c r="C148">
+        <f>No_cap!C57</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <f>No_cap!A58</f>
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <f>No_cap!B58</f>
+        <v>2066</v>
+      </c>
+      <c r="C149">
+        <f>No_cap!C58</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <f>No_cap!A59</f>
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <f>No_cap!B59</f>
+        <v>2067</v>
+      </c>
+      <c r="C150">
+        <f>No_cap!C59</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <f>No_cap!A60</f>
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <f>No_cap!B60</f>
+        <v>2068</v>
+      </c>
+      <c r="C151">
+        <f>No_cap!C60</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <f>No_cap!A61</f>
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <f>No_cap!B61</f>
+        <v>2069</v>
+      </c>
+      <c r="C152">
+        <f>No_cap!C61</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <f>No_cap!A62</f>
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <f>No_cap!B62</f>
+        <v>2070</v>
+      </c>
+      <c r="C153">
+        <f>No_cap!C62</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <f>No_cap!A63</f>
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <f>No_cap!B63</f>
+        <v>2071</v>
+      </c>
+      <c r="C154">
+        <f>No_cap!C63</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <f>No_cap!A64</f>
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <f>No_cap!B64</f>
+        <v>2072</v>
+      </c>
+      <c r="C155">
+        <f>No_cap!C64</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <f>No_cap!A65</f>
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <f>No_cap!B65</f>
+        <v>2073</v>
+      </c>
+      <c r="C156">
+        <f>No_cap!C65</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <f>No_cap!A66</f>
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <f>No_cap!B66</f>
+        <v>2074</v>
+      </c>
+      <c r="C157">
+        <f>No_cap!C66</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <f>No_cap!A67</f>
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <f>No_cap!B67</f>
+        <v>2075</v>
+      </c>
+      <c r="C158">
+        <f>No_cap!C67</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <f>No_cap!A68</f>
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <f>No_cap!B68</f>
+        <v>2076</v>
+      </c>
+      <c r="C159">
+        <f>No_cap!C68</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <f>No_cap!A69</f>
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <f>No_cap!B69</f>
+        <v>2077</v>
+      </c>
+      <c r="C160">
+        <f>No_cap!C69</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <f>No_cap!A70</f>
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <f>No_cap!B70</f>
+        <v>2078</v>
+      </c>
+      <c r="C161">
+        <f>No_cap!C70</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <f>No_cap!A71</f>
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <f>No_cap!B71</f>
+        <v>2079</v>
+      </c>
+      <c r="C162">
+        <f>No_cap!C71</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <f>No_cap!A72</f>
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <f>No_cap!B72</f>
+        <v>2080</v>
+      </c>
+      <c r="C163">
+        <f>No_cap!C72</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <f>No_cap!A73</f>
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <f>No_cap!B73</f>
+        <v>2081</v>
+      </c>
+      <c r="C164">
+        <f>No_cap!C73</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <f>No_cap!A74</f>
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <f>No_cap!B74</f>
+        <v>2082</v>
+      </c>
+      <c r="C165">
+        <f>No_cap!C74</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <f>No_cap!A75</f>
+        <v>0</v>
+      </c>
+      <c r="B166">
+        <f>No_cap!B75</f>
+        <v>2083</v>
+      </c>
+      <c r="C166">
+        <f>No_cap!C75</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <f>No_cap!A76</f>
+        <v>0</v>
+      </c>
+      <c r="B167">
+        <f>No_cap!B76</f>
+        <v>2084</v>
+      </c>
+      <c r="C167">
+        <f>No_cap!C76</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <f>No_cap!A77</f>
+        <v>0</v>
+      </c>
+      <c r="B168">
+        <f>No_cap!B77</f>
+        <v>2085</v>
+      </c>
+      <c r="C168">
+        <f>No_cap!C77</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <f>No_cap!A78</f>
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <f>No_cap!B78</f>
+        <v>2086</v>
+      </c>
+      <c r="C169">
+        <f>No_cap!C78</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <f>No_cap!A79</f>
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <f>No_cap!B79</f>
+        <v>2087</v>
+      </c>
+      <c r="C170">
+        <f>No_cap!C79</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <f>No_cap!A80</f>
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <f>No_cap!B80</f>
+        <v>2088</v>
+      </c>
+      <c r="C171">
+        <f>No_cap!C80</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <f>No_cap!A81</f>
+        <v>0</v>
+      </c>
+      <c r="B172">
+        <f>No_cap!B81</f>
+        <v>2089</v>
+      </c>
+      <c r="C172">
+        <f>No_cap!C81</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <f>No_cap!A82</f>
+        <v>0</v>
+      </c>
+      <c r="B173">
+        <f>No_cap!B82</f>
+        <v>2090</v>
+      </c>
+      <c r="C173">
+        <f>No_cap!C82</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <f>No_cap!A83</f>
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <f>No_cap!B83</f>
+        <v>2091</v>
+      </c>
+      <c r="C174">
+        <f>No_cap!C83</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <f>No_cap!A84</f>
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <f>No_cap!B84</f>
+        <v>2092</v>
+      </c>
+      <c r="C175">
+        <f>No_cap!C84</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <f>No_cap!A85</f>
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <f>No_cap!B85</f>
+        <v>2093</v>
+      </c>
+      <c r="C176">
+        <f>No_cap!C85</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <f>No_cap!A86</f>
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <f>No_cap!B86</f>
+        <v>2094</v>
+      </c>
+      <c r="C177">
+        <f>No_cap!C86</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <f>No_cap!A87</f>
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <f>No_cap!B87</f>
+        <v>2095</v>
+      </c>
+      <c r="C178">
+        <f>No_cap!C87</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <f>No_cap!A88</f>
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <f>No_cap!B88</f>
+        <v>2096</v>
+      </c>
+      <c r="C179">
+        <f>No_cap!C88</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <f>No_cap!A89</f>
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <f>No_cap!B89</f>
+        <v>2097</v>
+      </c>
+      <c r="C180">
+        <f>No_cap!C89</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <f>No_cap!A90</f>
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <f>No_cap!B90</f>
+        <v>2098</v>
+      </c>
+      <c r="C181">
+        <f>No_cap!C90</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <f>No_cap!A91</f>
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <f>No_cap!B91</f>
+        <v>2099</v>
+      </c>
+      <c r="C182">
+        <f>No_cap!C91</f>
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <f>No_cap!A92</f>
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <f>No_cap!B92</f>
+        <v>2100</v>
+      </c>
+      <c r="C183">
+        <f>No_cap!C92</f>
+        <v>10000000000</v>
       </c>
     </row>
   </sheetData>
@@ -2137,8 +5168,67 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
